--- a/sitepreview/trust/StructureDefinition-HCert.xlsx
+++ b/sitepreview/trust/StructureDefinition-HCert.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.3</t>
+    <t>1.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T23:34:44+00:00</t>
+    <t>2024-11-04T12:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
     <t>HCert.3</t>
   </si>
   <si>
-    <t xml:space="preserve">DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet.VS}
+    <t xml:space="preserve">http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSetVS}
 </t>
   </si>
   <si>
@@ -276,7 +276,7 @@
     <t>HCert.4</t>
   </si>
   <si>
-    <t xml:space="preserve">DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet.TR}
+    <t xml:space="preserve">http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSetTR}
 </t>
   </si>
   <si>
@@ -297,6 +297,19 @@
   </si>
   <si>
     <t>SMART Health Link</t>
+  </si>
+  <si>
+    <t>HCert.-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://smart.who.int/icvp/StructureDefinition/DVCPayload
+</t>
+  </si>
+  <si>
+    <t>DVC</t>
+  </si>
+  <si>
+    <t>Digital Vaccination Certificate (Proposed)</t>
   </si>
 </sst>
 </file>
@@ -601,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -610,8 +623,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.05078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.05078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.71484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.71484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -620,7 +633,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1257,6 +1270,106 @@
         <v>72</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
